--- a/data/trans_dic/IP2002-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP2002-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,45%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,44%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>13,45%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>5,45%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,28; 16,89</t>
+          <t>3,33; 8,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,02; 14,07</t>
+          <t>5,3; 11,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,09; 13,49</t>
+          <t>1,28; 4,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,28; 8,83</t>
+          <t>2,37; 6,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,32; 17,37</t>
+          <t>2,99; 7,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,48; 12,15</t>
+          <t>3,67; 8,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,94; 12,92</t>
+          <t>3,96; 9,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,77; 9,79</t>
+          <t>4,16; 10,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,18; 15,75</t>
+          <t>3,63; 7,16</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,03; 12,4</t>
+          <t>5,09; 9,02</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,57; 11,7</t>
+          <t>2,84; 5,81</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,26; 8,42</t>
+          <t>3,64; 7,47</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>13,45%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>13,44%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>6,99%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>13,45%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>9,96%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>6,6%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,33; 8,23</t>
+          <t>10,28; 16,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,3; 11,59</t>
+          <t>8,02; 14,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 4,43</t>
+          <t>7,09; 13,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,37; 6,85</t>
+          <t>4,28; 8,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,99; 7,89</t>
+          <t>10,32; 17,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,67; 8,72</t>
+          <t>6,48; 12,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,96; 9,08</t>
+          <t>6,94; 12,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,16; 10,31</t>
+          <t>4,77; 9,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,63; 7,16</t>
+          <t>11,18; 15,75</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,09; 9,02</t>
+          <t>8,03; 12,4</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,84; 5,81</t>
+          <t>7,57; 11,7</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,64; 7,47</t>
+          <t>5,26; 8,42</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2002-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP2002-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>0,72%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>0; 1,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>0; 1,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>0; 1,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,59</t>
+          <t>0,0; 6,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>0; 1,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>0; 1,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,09</t>
+          <t>0; 1,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,86</t>
+          <t>0; 2,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0; 0,81</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0; 0,67</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,0</t>
+          <t>0; 0,73</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,32</t>
+          <t>0,0; 3,24</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>3,52%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,33; 8,23</t>
+          <t>0,56; 3,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,3; 11,59</t>
+          <t>2,39; 6,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,28; 4,43</t>
+          <t>0,21; 2,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,37; 6,85</t>
+          <t>1,78; 7,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,99; 7,89</t>
+          <t>0,53; 3,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,67; 8,72</t>
+          <t>1,23; 4,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,96; 9,08</t>
+          <t>0,98; 4,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,16; 10,31</t>
+          <t>1,51; 6,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,63; 7,16</t>
+          <t>0,75; 2,61</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,09; 9,02</t>
+          <t>2,15; 5,13</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,84; 5,81</t>
+          <t>0,76; 2,73</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,64; 7,47</t>
+          <t>2,08; 5,43</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,45%</t>
+          <t>14,48%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>10,98%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,44%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>13,45%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>6,84%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,28; 16,89</t>
+          <t>10,23; 20,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,02; 14,07</t>
+          <t>7,14; 15,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,09; 13,49</t>
+          <t>4,5; 10,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,28; 8,83</t>
+          <t>2,7; 7,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,32; 17,37</t>
+          <t>7,21; 16,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,48; 12,15</t>
+          <t>5,76; 13,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,94; 12,92</t>
+          <t>6,97; 14,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,77; 9,79</t>
+          <t>6,0; 13,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,18; 15,75</t>
+          <t>10,39; 16,61</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,03; 12,4</t>
+          <t>7,27; 12,81</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,57; 11,7</t>
+          <t>6,62; 11,56</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,26; 8,42</t>
+          <t>4,92; 9,23</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>12,31%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>11,14%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>10,42%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>13,94%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>10,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>13,1%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>6,4%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,91; 9,2</t>
+          <t>9,04; 16,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,35; 8,66</t>
+          <t>7,83; 15,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,63; 6,27</t>
+          <t>6,87; 14,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,54; 6,41</t>
+          <t>3,89; 9,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,56; 8,91</t>
+          <t>10,18; 18,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,12; 6,99</t>
+          <t>6,61; 14,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,76; 7,84</t>
+          <t>6,15; 13,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,54; 7,71</t>
+          <t>4,03; 9,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,16; 8,36</t>
+          <t>10,53; 16,15</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,23; 7,39</t>
+          <t>7,92; 13,38</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,55; 6,56</t>
+          <t>7,49; 13,04</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,46; 6,67</t>
+          <t>4,59; 8,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7,28%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6,93%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4,81%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4,87%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7,1%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5,53%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6,21%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6,04%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7,2%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6,25%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5,49%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>5,42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5,76; 9,08</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5,5; 8,78</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3,62; 6,33</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3,63; 6,46</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>5,63; 8,9</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>4,22; 7,27</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4,88; 8,08</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4,61; 7,92</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>6,15; 8,37</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>5,24; 7,4</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>4,57; 6,63</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>4,3; 6,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/IP2002-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP2002-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,13</t>
+          <t>0,0; 8,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,24</t>
+          <t>0,0; 3,38</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,5</t>
+          <t>0,79; 3,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,39; 6,89</t>
+          <t>2,34; 6,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,45</t>
+          <t>0,21; 2,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,78; 7,29</t>
+          <t>1,65; 6,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,0</t>
+          <t>0,56; 3,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 4,91</t>
+          <t>1,12; 4,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,98; 4,58</t>
+          <t>0,91; 4,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,51; 6,19</t>
+          <t>1,64; 6,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,61</t>
+          <t>0,81; 2,79</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,15; 5,13</t>
+          <t>2,18; 4,98</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,76; 2,73</t>
+          <t>0,71; 2,65</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,08; 5,43</t>
+          <t>2,02; 5,59</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,23; 20,01</t>
+          <t>10,03; 19,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,14; 15,82</t>
+          <t>7,31; 16,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,5; 10,95</t>
+          <t>4,53; 10,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,7; 7,98</t>
+          <t>2,82; 8,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,21; 16,73</t>
+          <t>7,55; 17,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,76; 13,07</t>
+          <t>5,59; 12,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,97; 14,56</t>
+          <t>7,16; 14,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,0; 13,89</t>
+          <t>5,84; 13,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,39; 16,61</t>
+          <t>10,29; 16,82</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,27; 12,81</t>
+          <t>7,58; 13,0</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,62; 11,56</t>
+          <t>6,57; 11,39</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,92; 9,23</t>
+          <t>4,75; 9,42</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,04; 16,42</t>
+          <t>8,95; 16,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,83; 15,51</t>
+          <t>7,74; 15,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,87; 14,67</t>
+          <t>6,53; 14,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,89; 9,46</t>
+          <t>3,99; 9,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,18; 18,16</t>
+          <t>10,46; 18,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,61; 14,41</t>
+          <t>6,87; 14,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,15; 13,47</t>
+          <t>6,48; 13,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,03; 9,73</t>
+          <t>4,4; 9,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,53; 16,15</t>
+          <t>10,53; 16,36</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,92; 13,38</t>
+          <t>8,12; 13,47</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,49; 13,04</t>
+          <t>7,41; 12,84</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,59; 8,66</t>
+          <t>4,66; 8,49</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,76; 9,08</t>
+          <t>5,82; 8,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,5; 8,78</t>
+          <t>5,52; 8,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,62; 6,33</t>
+          <t>3,69; 6,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,63; 6,46</t>
+          <t>3,48; 6,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,63; 8,9</t>
+          <t>5,55; 8,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,22; 7,27</t>
+          <t>4,32; 7,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,88; 8,08</t>
+          <t>4,84; 7,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,61; 7,92</t>
+          <t>4,49; 7,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,15; 8,37</t>
+          <t>6,18; 8,49</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,24; 7,4</t>
+          <t>5,12; 7,47</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,57; 6,63</t>
+          <t>4,48; 6,65</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,3; 6,54</t>
+          <t>4,43; 6,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2002-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP2002-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,13 +534,13 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores a los que les han extraido dientes por caries o por otro motivo</t>
+          <t>Menores a los que les han extraído dientes por caries o por otro motivo</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,27 +691,27 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>1,48%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,73%</t>
         </is>
       </c>
     </row>
@@ -724,42 +724,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0; 1,76</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0; 1,28</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0; 1,35</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0; 2,13</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>0; 1,49</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>0; 1,39</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>0; 1,56</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 8,79</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,76</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,28</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,35</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>0,0; 8,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,38</t>
+          <t>0,0; 3,62</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>1,42%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2,5%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2,26%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3,35%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>1,62%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>4,21%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>0,81%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,66%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>1,42%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2,5%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>2,26%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>3,59%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 3,5</t>
+          <t>0,53; 3,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,34; 6,74</t>
+          <t>1,21; 4,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,33</t>
+          <t>0,98; 4,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,65; 6,94</t>
+          <t>1,45; 6,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,21</t>
+          <t>0,54; 3,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,12; 4,78</t>
+          <t>2,31; 6,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,91; 4,64</t>
+          <t>0,21; 2,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,64; 6,29</t>
+          <t>1,83; 6,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,79</t>
+          <t>0,81; 2,63</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,18; 4,98</t>
+          <t>2,15; 5,1</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,65</t>
+          <t>0,76; 2,66</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,02; 5,59</t>
+          <t>2,13; 5,71</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>11,89%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>8,72%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>10,46%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>9,23%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>14,48%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>10,98%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>7,15%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>4,79%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>11,89%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>8,72%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>10,46%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>6,88%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,03; 19,69</t>
+          <t>7,19; 16,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,31; 16,22</t>
+          <t>5,54; 13,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,53; 10,46</t>
+          <t>7,09; 14,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,82; 8,03</t>
+          <t>5,85; 13,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,55; 17,14</t>
+          <t>10,0; 19,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,59; 12,66</t>
+          <t>7,33; 15,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,16; 14,56</t>
+          <t>4,48; 11,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,84; 13,49</t>
+          <t>2,72; 8,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,29; 16,82</t>
+          <t>10,26; 16,6</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,58; 13,0</t>
+          <t>7,3; 12,92</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,57; 11,39</t>
+          <t>6,49; 11,37</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,75; 9,42</t>
+          <t>4,82; 9,3</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>13,94%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10,0%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9,51%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6,37%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>12,31%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>11,14%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>10,42%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>6,18%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>13,94%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>10,0%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>9,51%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>6,35%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,95; 16,72</t>
+          <t>10,37; 18,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,74; 15,21</t>
+          <t>6,69; 14,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,53; 14,78</t>
+          <t>6,25; 13,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,99; 9,72</t>
+          <t>3,74; 9,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,46; 18,2</t>
+          <t>9,29; 16,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,87; 14,43</t>
+          <t>7,79; 15,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,48; 13,64</t>
+          <t>6,92; 14,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,4; 9,97</t>
+          <t>4,0; 9,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,53; 16,36</t>
+          <t>10,49; 16,07</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,12; 13,47</t>
+          <t>8,02; 13,53</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,41; 12,84</t>
+          <t>7,41; 13,04</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,66; 8,49</t>
+          <t>4,56; 8,55</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>7,1%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5,53%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6,21%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5,92%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>7,28%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>6,93%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>4,81%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>4,87%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>7,1%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>5,53%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>6,21%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>5,44%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,82; 8,95</t>
+          <t>5,56; 8,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,52; 8,69</t>
+          <t>4,12; 6,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,69; 6,31</t>
+          <t>4,76; 7,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,48; 6,4</t>
+          <t>4,4; 7,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,55; 8,85</t>
+          <t>5,91; 9,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,32; 7,2</t>
+          <t>5,35; 8,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,84; 7,87</t>
+          <t>3,63; 6,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,49; 7,67</t>
+          <t>3,66; 6,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,18; 8,49</t>
+          <t>6,16; 8,36</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,12; 7,47</t>
+          <t>5,23; 7,39</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,48; 6,65</t>
+          <t>4,55; 6,56</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,43; 6,62</t>
+          <t>4,43; 6,73</t>
         </is>
       </c>
     </row>
